--- a/BPS_FH_Dataset/24/chords.xlsx
+++ b/BPS_FH_Dataset/24/chords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Dataset\BPS Dataset\24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -622,14 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vii-64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,6 +643,14 @@
   </si>
   <si>
     <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ii=42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="D398" sqref="D398:G398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7236,13 +7236,13 @@
         <v>2</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="F270" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -7279,16 +7279,16 @@
         <v>116</v>
       </c>
       <c r="D272" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="F272" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -7322,7 +7322,7 @@
         <v>527</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D274" s="1">
         <v>1</v>
@@ -7345,7 +7345,7 @@
         <v>528</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D275" s="1">
         <v>1</v>
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -7368,7 +7368,7 @@
         <v>531</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D276" s="1">
         <v>7</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7391,7 +7391,7 @@
         <v>534</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D277" s="1">
         <v>5</v>
@@ -7414,19 +7414,19 @@
         <v>547</v>
       </c>
       <c r="C278" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D278" s="4">
+        <v>1</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F278" s="4">
+        <v>0</v>
+      </c>
+      <c r="G278" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D278" s="4">
-        <v>1</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F278" s="4">
-        <v>0</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
@@ -10180,13 +10180,13 @@
         <v>2</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="F398" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -10223,16 +10223,16 @@
         <v>116</v>
       </c>
       <c r="D400" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="F400" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -10266,7 +10266,7 @@
         <v>795</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D402" s="1">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>796</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D403" s="1">
         <v>1</v>
@@ -10301,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -10312,7 +10312,7 @@
         <v>799</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D404" s="1">
         <v>7</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -10335,7 +10335,7 @@
         <v>802</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D405" s="1">
         <v>5</v>
@@ -10358,19 +10358,19 @@
         <v>816</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D406" s="1">
+        <v>1</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F406" s="1">
+        <v>0</v>
+      </c>
+      <c r="G406" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D406" s="1">
-        <v>1</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F406" s="1">
-        <v>0</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
